--- a/Financials/Quarterly/BTI_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BTI_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03BF1E-981E-408D-B6E2-D0660FB1F178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTI" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BTI</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,154 +689,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15322200</v>
+        <v>16768200</v>
       </c>
       <c r="E8" s="3">
-        <v>15993700</v>
+        <v>15177000</v>
       </c>
       <c r="F8" s="3">
-        <v>9767900</v>
+        <v>15842100</v>
       </c>
       <c r="G8" s="3">
-        <v>10642300</v>
+        <v>9675400</v>
       </c>
       <c r="H8" s="3">
-        <v>8781700</v>
+        <v>9731500</v>
       </c>
       <c r="I8" s="3">
-        <v>8830400</v>
+        <v>8698400</v>
       </c>
       <c r="J8" s="3">
+        <v>8746700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8424800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9445300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3001000</v>
+        <v>2962100</v>
       </c>
       <c r="E9" s="3">
-        <v>4072800</v>
+        <v>2972500</v>
       </c>
       <c r="F9" s="3">
-        <v>2554600</v>
+        <v>4034200</v>
       </c>
       <c r="G9" s="3">
-        <v>2779700</v>
+        <v>2530400</v>
       </c>
       <c r="H9" s="3">
-        <v>2135800</v>
+        <v>2753400</v>
       </c>
       <c r="I9" s="3">
-        <v>2073900</v>
+        <v>2115600</v>
       </c>
       <c r="J9" s="3">
+        <v>2054300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1919900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2063400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12321200</v>
+        <v>13806100</v>
       </c>
       <c r="E10" s="3">
-        <v>11920900</v>
+        <v>12204400</v>
       </c>
       <c r="F10" s="3">
-        <v>7213400</v>
+        <v>11807900</v>
       </c>
       <c r="G10" s="3">
-        <v>7862600</v>
+        <v>7145000</v>
       </c>
       <c r="H10" s="3">
-        <v>6645800</v>
+        <v>6978100</v>
       </c>
       <c r="I10" s="3">
-        <v>6756400</v>
+        <v>6582900</v>
       </c>
       <c r="J10" s="3">
+        <v>6692400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6504900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7381900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +860,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +890,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +922,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>130400</v>
+        <v>348300</v>
       </c>
       <c r="E14" s="3">
-        <v>614900</v>
+        <v>129100</v>
       </c>
       <c r="F14" s="3">
+        <v>609100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>173500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>708200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>210000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>405600</v>
+      </c>
+      <c r="K14" s="3">
         <v>175100</v>
       </c>
-      <c r="G14" s="3">
-        <v>582000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>212000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>308100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>175100</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>431900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>539900</v>
+        <v>756500</v>
       </c>
       <c r="E15" s="3">
-        <v>628100</v>
+        <v>534800</v>
       </c>
       <c r="F15" s="3">
-        <v>447700</v>
+        <v>622200</v>
       </c>
       <c r="G15" s="3">
-        <v>405600</v>
+        <v>443500</v>
       </c>
       <c r="H15" s="3">
-        <v>309400</v>
+        <v>499600</v>
       </c>
       <c r="I15" s="3">
-        <v>355500</v>
+        <v>306500</v>
       </c>
       <c r="J15" s="3">
+        <v>352200</v>
+      </c>
+      <c r="K15" s="3">
         <v>293600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>420100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +999,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9478300</v>
+        <v>10409700</v>
       </c>
       <c r="E17" s="3">
-        <v>10939900</v>
+        <v>9388400</v>
       </c>
       <c r="F17" s="3">
-        <v>6378500</v>
+        <v>10836200</v>
       </c>
       <c r="G17" s="3">
-        <v>7426700</v>
+        <v>6318100</v>
       </c>
       <c r="H17" s="3">
-        <v>5867600</v>
+        <v>6546300</v>
       </c>
       <c r="I17" s="3">
-        <v>5920300</v>
+        <v>5812000</v>
       </c>
       <c r="J17" s="3">
+        <v>5964600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5334300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6697200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5843900</v>
+        <v>6358500</v>
       </c>
       <c r="E18" s="3">
-        <v>5053800</v>
+        <v>5788500</v>
       </c>
       <c r="F18" s="3">
-        <v>3389400</v>
+        <v>5005900</v>
       </c>
       <c r="G18" s="3">
-        <v>3215600</v>
+        <v>3357300</v>
       </c>
       <c r="H18" s="3">
-        <v>2914100</v>
+        <v>3185100</v>
       </c>
       <c r="I18" s="3">
-        <v>2910100</v>
+        <v>2886400</v>
       </c>
       <c r="J18" s="3">
+        <v>2782100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3090500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2748100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1077,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-617600</v>
+        <v>-643000</v>
       </c>
       <c r="E20" s="3">
-        <v>29841100</v>
+        <v>-611700</v>
       </c>
       <c r="F20" s="3">
-        <v>596500</v>
+        <v>29558300</v>
       </c>
       <c r="G20" s="3">
-        <v>496400</v>
+        <v>590900</v>
       </c>
       <c r="H20" s="3">
-        <v>1597300</v>
+        <v>491700</v>
       </c>
       <c r="I20" s="3">
-        <v>580700</v>
+        <v>1582100</v>
       </c>
       <c r="J20" s="3">
+        <v>675600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1893500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5766200</v>
+        <v>6472000</v>
       </c>
       <c r="E21" s="3">
-        <v>35523000</v>
+        <v>5711600</v>
       </c>
       <c r="F21" s="3">
-        <v>4433600</v>
+        <v>35186400</v>
       </c>
       <c r="G21" s="3">
-        <v>4178200</v>
+        <v>4391600</v>
       </c>
       <c r="H21" s="3">
-        <v>4844500</v>
+        <v>4138600</v>
       </c>
       <c r="I21" s="3">
-        <v>3795000</v>
+        <v>4798600</v>
       </c>
       <c r="J21" s="3">
+        <v>3759000</v>
+      </c>
+      <c r="K21" s="3">
         <v>5243500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3708100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1088,75 +1162,84 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>382200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>379200</v>
+      </c>
+      <c r="L22" s="3">
         <v>385800</v>
       </c>
-      <c r="J22" s="3">
-        <v>379200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>385800</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5226300</v>
+        <v>5715500</v>
       </c>
       <c r="E23" s="3">
-        <v>34894900</v>
+        <v>5176800</v>
       </c>
       <c r="F23" s="3">
-        <v>3985900</v>
+        <v>34564200</v>
       </c>
       <c r="G23" s="3">
-        <v>3712000</v>
+        <v>3948100</v>
       </c>
       <c r="H23" s="3">
-        <v>4511300</v>
+        <v>3676800</v>
       </c>
       <c r="I23" s="3">
-        <v>3105000</v>
+        <v>4468600</v>
       </c>
       <c r="J23" s="3">
+        <v>3075600</v>
+      </c>
+      <c r="K23" s="3">
         <v>4604800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2941700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1480100</v>
+        <v>1417800</v>
       </c>
       <c r="E24" s="3">
-        <v>1023100</v>
+        <v>1466000</v>
       </c>
       <c r="F24" s="3">
-        <v>895400</v>
+        <v>1013400</v>
       </c>
       <c r="G24" s="3">
-        <v>949400</v>
+        <v>886900</v>
       </c>
       <c r="H24" s="3">
-        <v>902000</v>
+        <v>940400</v>
       </c>
       <c r="I24" s="3">
-        <v>816400</v>
+        <v>893500</v>
       </c>
       <c r="J24" s="3">
+        <v>808700</v>
+      </c>
+      <c r="K24" s="3">
         <v>938900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>957300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1267,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3746300</v>
+        <v>4297700</v>
       </c>
       <c r="E26" s="3">
-        <v>33871800</v>
+        <v>3710800</v>
       </c>
       <c r="F26" s="3">
-        <v>3090500</v>
+        <v>33550800</v>
       </c>
       <c r="G26" s="3">
-        <v>2762600</v>
+        <v>3061200</v>
       </c>
       <c r="H26" s="3">
-        <v>3609300</v>
+        <v>2736400</v>
       </c>
       <c r="I26" s="3">
-        <v>2288600</v>
+        <v>3575100</v>
       </c>
       <c r="J26" s="3">
+        <v>2266900</v>
+      </c>
+      <c r="K26" s="3">
         <v>3665900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1984400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3633000</v>
+        <v>4177700</v>
       </c>
       <c r="E27" s="3">
-        <v>33759900</v>
+        <v>3598600</v>
       </c>
       <c r="F27" s="3">
-        <v>2977300</v>
+        <v>33439900</v>
       </c>
       <c r="G27" s="3">
-        <v>2603300</v>
+        <v>2949000</v>
       </c>
       <c r="H27" s="3">
-        <v>3517100</v>
+        <v>2578600</v>
       </c>
       <c r="I27" s="3">
-        <v>2166100</v>
+        <v>3483800</v>
       </c>
       <c r="J27" s="3">
+        <v>2145600</v>
+      </c>
+      <c r="K27" s="3">
         <v>3482900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,19 +1363,22 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-90900</v>
+        <v>181300</v>
       </c>
       <c r="E29" s="3">
-        <v>12622700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>-90000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>12503100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1300,8 +1395,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1427,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1459,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>617600</v>
+        <v>643000</v>
       </c>
       <c r="E32" s="3">
-        <v>-29841100</v>
+        <v>611700</v>
       </c>
       <c r="F32" s="3">
-        <v>-596500</v>
+        <v>-29558300</v>
       </c>
       <c r="G32" s="3">
-        <v>-496400</v>
+        <v>-590900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1597300</v>
+        <v>-491700</v>
       </c>
       <c r="I32" s="3">
-        <v>-580700</v>
+        <v>-1582100</v>
       </c>
       <c r="J32" s="3">
+        <v>-675600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1893500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-579400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3542200</v>
+        <v>4359000</v>
       </c>
       <c r="E33" s="3">
-        <v>46382600</v>
+        <v>3508600</v>
       </c>
       <c r="F33" s="3">
-        <v>2977300</v>
+        <v>45943000</v>
       </c>
       <c r="G33" s="3">
-        <v>2603300</v>
+        <v>2949000</v>
       </c>
       <c r="H33" s="3">
-        <v>3517100</v>
+        <v>2578600</v>
       </c>
       <c r="I33" s="3">
-        <v>2166100</v>
+        <v>3483800</v>
       </c>
       <c r="J33" s="3">
+        <v>2145600</v>
+      </c>
+      <c r="K33" s="3">
         <v>3482900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1555,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3542200</v>
+        <v>4359000</v>
       </c>
       <c r="E35" s="3">
-        <v>46382600</v>
+        <v>3508600</v>
       </c>
       <c r="F35" s="3">
-        <v>2977300</v>
+        <v>45943000</v>
       </c>
       <c r="G35" s="3">
-        <v>2603300</v>
+        <v>2949000</v>
       </c>
       <c r="H35" s="3">
-        <v>3517100</v>
+        <v>2578600</v>
       </c>
       <c r="I35" s="3">
-        <v>2166100</v>
+        <v>3483800</v>
       </c>
       <c r="J35" s="3">
+        <v>2145600</v>
+      </c>
+      <c r="K35" s="3">
         <v>3482900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1640,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,269 +1654,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2798200</v>
+        <v>3393800</v>
       </c>
       <c r="E41" s="3">
-        <v>4333600</v>
+        <v>2771700</v>
       </c>
       <c r="F41" s="3">
-        <v>2658600</v>
+        <v>4292500</v>
       </c>
       <c r="G41" s="3">
-        <v>2902200</v>
+        <v>2633400</v>
       </c>
       <c r="H41" s="3">
-        <v>2478200</v>
+        <v>2874700</v>
       </c>
       <c r="I41" s="3">
-        <v>2584900</v>
+        <v>2454700</v>
       </c>
       <c r="J41" s="3">
+        <v>2560400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1865900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2393900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>247600</v>
+        <v>232200</v>
       </c>
       <c r="E42" s="3">
-        <v>85600</v>
+        <v>245200</v>
       </c>
       <c r="F42" s="3">
-        <v>34200</v>
+        <v>84800</v>
       </c>
       <c r="G42" s="3">
-        <v>19800</v>
+        <v>33900</v>
       </c>
       <c r="H42" s="3">
-        <v>80300</v>
+        <v>19600</v>
       </c>
       <c r="I42" s="3">
-        <v>46100</v>
+        <v>79600</v>
       </c>
       <c r="J42" s="3">
-        <v>65800</v>
+        <v>45700</v>
       </c>
       <c r="K42" s="3">
         <v>65800</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5383000</v>
+        <v>4776400</v>
       </c>
       <c r="E43" s="3">
-        <v>5942700</v>
+        <v>5332000</v>
       </c>
       <c r="F43" s="3">
-        <v>5140700</v>
+        <v>5886400</v>
       </c>
       <c r="G43" s="3">
-        <v>5205300</v>
+        <v>5092000</v>
       </c>
       <c r="H43" s="3">
-        <v>4570600</v>
+        <v>5155900</v>
       </c>
       <c r="I43" s="3">
-        <v>4398100</v>
+        <v>4527300</v>
       </c>
       <c r="J43" s="3">
+        <v>4356400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3414400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3719900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8347100</v>
+        <v>7863700</v>
       </c>
       <c r="E44" s="3">
-        <v>7721700</v>
+        <v>8268000</v>
       </c>
       <c r="F44" s="3">
-        <v>6817000</v>
+        <v>7648500</v>
       </c>
       <c r="G44" s="3">
-        <v>7628200</v>
+        <v>6752400</v>
       </c>
       <c r="H44" s="3">
-        <v>6221800</v>
+        <v>7555900</v>
       </c>
       <c r="I44" s="3">
-        <v>5592400</v>
+        <v>6162900</v>
       </c>
       <c r="J44" s="3">
+        <v>5539400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4959000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5442300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259400</v>
+        <v>240000</v>
       </c>
       <c r="E45" s="3">
-        <v>306800</v>
+        <v>256900</v>
       </c>
       <c r="F45" s="3">
-        <v>458200</v>
+        <v>303900</v>
       </c>
       <c r="G45" s="3">
-        <v>518800</v>
+        <v>453900</v>
       </c>
       <c r="H45" s="3">
-        <v>724200</v>
+        <v>513900</v>
       </c>
       <c r="I45" s="3">
-        <v>301500</v>
+        <v>717400</v>
       </c>
       <c r="J45" s="3">
+        <v>298700</v>
+      </c>
+      <c r="K45" s="3">
         <v>454300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>402900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17035300</v>
+        <v>16506000</v>
       </c>
       <c r="E46" s="3">
-        <v>18390300</v>
+        <v>16873900</v>
       </c>
       <c r="F46" s="3">
-        <v>15108800</v>
+        <v>18216000</v>
       </c>
       <c r="G46" s="3">
-        <v>16274200</v>
+        <v>14965700</v>
       </c>
       <c r="H46" s="3">
-        <v>14075200</v>
+        <v>16120000</v>
       </c>
       <c r="I46" s="3">
-        <v>12923000</v>
+        <v>13941800</v>
       </c>
       <c r="J46" s="3">
+        <v>12800500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10759500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12024900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3353900</v>
+        <v>3209900</v>
       </c>
       <c r="E47" s="3">
-        <v>3127400</v>
+        <v>3322100</v>
       </c>
       <c r="F47" s="3">
-        <v>13483900</v>
+        <v>3097700</v>
       </c>
       <c r="G47" s="3">
-        <v>13364100</v>
+        <v>13356100</v>
       </c>
       <c r="H47" s="3">
-        <v>12084200</v>
+        <v>13237400</v>
       </c>
       <c r="I47" s="3">
-        <v>9511200</v>
+        <v>11969700</v>
       </c>
       <c r="J47" s="3">
+        <v>9421000</v>
+      </c>
+      <c r="K47" s="3">
         <v>8967300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3409200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6385100</v>
+        <v>6738100</v>
       </c>
       <c r="E48" s="3">
-        <v>6428600</v>
+        <v>6324600</v>
       </c>
       <c r="F48" s="3">
-        <v>4787800</v>
+        <v>6367600</v>
       </c>
       <c r="G48" s="3">
-        <v>4820800</v>
+        <v>4742500</v>
       </c>
       <c r="H48" s="3">
-        <v>4311200</v>
+        <v>4775100</v>
       </c>
       <c r="I48" s="3">
-        <v>3978000</v>
+        <v>4270300</v>
       </c>
       <c r="J48" s="3">
+        <v>3940300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3727800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3955600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158022700</v>
+        <v>161751400</v>
       </c>
       <c r="E49" s="3">
-        <v>155098100</v>
+        <v>156525000</v>
       </c>
       <c r="F49" s="3">
-        <v>16034600</v>
+        <v>153628200</v>
       </c>
       <c r="G49" s="3">
-        <v>15955500</v>
+        <v>15882600</v>
       </c>
       <c r="H49" s="3">
-        <v>15511800</v>
+        <v>15804300</v>
       </c>
       <c r="I49" s="3">
-        <v>13742000</v>
+        <v>15364800</v>
       </c>
       <c r="J49" s="3">
+        <v>13611800</v>
+      </c>
+      <c r="K49" s="3">
         <v>13336400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14226600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1972,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2004,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2846900</v>
+        <v>2669900</v>
       </c>
       <c r="E52" s="3">
-        <v>2694200</v>
+        <v>2819900</v>
       </c>
       <c r="F52" s="3">
-        <v>2184600</v>
+        <v>2668600</v>
       </c>
       <c r="G52" s="3">
-        <v>1958100</v>
+        <v>2163900</v>
       </c>
       <c r="H52" s="3">
-        <v>1736800</v>
+        <v>1939500</v>
       </c>
       <c r="I52" s="3">
-        <v>1344400</v>
+        <v>1720400</v>
       </c>
       <c r="J52" s="3">
+        <v>1331700</v>
+      </c>
+      <c r="K52" s="3">
         <v>967800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2068,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187643900</v>
+        <v>190875300</v>
       </c>
       <c r="E54" s="3">
-        <v>185738500</v>
+        <v>185865500</v>
       </c>
       <c r="F54" s="3">
-        <v>51599700</v>
+        <v>183978100</v>
       </c>
       <c r="G54" s="3">
-        <v>52372700</v>
+        <v>51110700</v>
       </c>
       <c r="H54" s="3">
-        <v>47719200</v>
+        <v>51876300</v>
       </c>
       <c r="I54" s="3">
-        <v>41498600</v>
+        <v>47266900</v>
       </c>
       <c r="J54" s="3">
+        <v>41105300</v>
+      </c>
+      <c r="K54" s="3">
         <v>37759000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34456400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2116,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2130,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12506900</v>
+        <v>13866100</v>
       </c>
       <c r="E57" s="3">
-        <v>11730000</v>
+        <v>12388300</v>
       </c>
       <c r="F57" s="3">
-        <v>7832300</v>
+        <v>11618800</v>
       </c>
       <c r="G57" s="3">
-        <v>9658700</v>
+        <v>7758000</v>
       </c>
       <c r="H57" s="3">
-        <v>6689300</v>
+        <v>9567100</v>
       </c>
       <c r="I57" s="3">
-        <v>7817800</v>
+        <v>6625900</v>
       </c>
       <c r="J57" s="3">
+        <v>7743700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5837300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7273900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6961900</v>
+        <v>5510700</v>
       </c>
       <c r="E58" s="3">
-        <v>7141000</v>
+        <v>6895900</v>
       </c>
       <c r="F58" s="3">
-        <v>7666400</v>
+        <v>7073300</v>
       </c>
       <c r="G58" s="3">
-        <v>3959600</v>
+        <v>7593700</v>
       </c>
       <c r="H58" s="3">
-        <v>7035600</v>
+        <v>3922100</v>
       </c>
       <c r="I58" s="3">
-        <v>2890400</v>
+        <v>6968900</v>
       </c>
       <c r="J58" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1765800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3264300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1665700</v>
+        <v>1921200</v>
       </c>
       <c r="E59" s="3">
-        <v>1677600</v>
+        <v>1650000</v>
       </c>
       <c r="F59" s="3">
-        <v>1877700</v>
+        <v>1661700</v>
       </c>
       <c r="G59" s="3">
-        <v>1993600</v>
+        <v>1859900</v>
       </c>
       <c r="H59" s="3">
-        <v>1796100</v>
+        <v>1974700</v>
       </c>
       <c r="I59" s="3">
-        <v>1150900</v>
+        <v>1779100</v>
       </c>
       <c r="J59" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1067900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1008700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21134500</v>
+        <v>21298100</v>
       </c>
       <c r="E60" s="3">
-        <v>20548500</v>
+        <v>20934200</v>
       </c>
       <c r="F60" s="3">
-        <v>17376400</v>
+        <v>20353800</v>
       </c>
       <c r="G60" s="3">
-        <v>15611900</v>
+        <v>17211700</v>
       </c>
       <c r="H60" s="3">
-        <v>15521000</v>
+        <v>15463900</v>
       </c>
       <c r="I60" s="3">
-        <v>11859000</v>
+        <v>15373900</v>
       </c>
       <c r="J60" s="3">
+        <v>11746600</v>
+      </c>
+      <c r="K60" s="3">
         <v>8671100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11546900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56918200</v>
+        <v>56455800</v>
       </c>
       <c r="E61" s="3">
-        <v>57974300</v>
+        <v>56378800</v>
       </c>
       <c r="F61" s="3">
-        <v>19863800</v>
+        <v>57424900</v>
       </c>
       <c r="G61" s="3">
-        <v>21711200</v>
+        <v>19675500</v>
       </c>
       <c r="H61" s="3">
-        <v>19604400</v>
+        <v>21505500</v>
       </c>
       <c r="I61" s="3">
-        <v>19496400</v>
+        <v>19418600</v>
       </c>
       <c r="J61" s="3">
+        <v>19311600</v>
+      </c>
+      <c r="K61" s="3">
         <v>18607600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12876900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27135100</v>
+        <v>27444000</v>
       </c>
       <c r="E62" s="3">
-        <v>26916500</v>
+        <v>26877900</v>
       </c>
       <c r="F62" s="3">
-        <v>3945100</v>
+        <v>26661400</v>
       </c>
       <c r="G62" s="3">
-        <v>3980700</v>
+        <v>3907700</v>
       </c>
       <c r="H62" s="3">
-        <v>4361200</v>
+        <v>3942900</v>
       </c>
       <c r="I62" s="3">
-        <v>3517100</v>
+        <v>4319900</v>
       </c>
       <c r="J62" s="3">
+        <v>3483800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2253000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2376800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2352,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2384,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2416,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105474900</v>
+        <v>105516100</v>
       </c>
       <c r="E66" s="3">
-        <v>105731700</v>
+        <v>104475200</v>
       </c>
       <c r="F66" s="3">
-        <v>41438100</v>
+        <v>104729600</v>
       </c>
       <c r="G66" s="3">
-        <v>41598700</v>
+        <v>41045300</v>
       </c>
       <c r="H66" s="3">
-        <v>39673600</v>
+        <v>41204500</v>
       </c>
       <c r="I66" s="3">
-        <v>35054300</v>
+        <v>39297600</v>
       </c>
       <c r="J66" s="3">
+        <v>34722000</v>
+      </c>
+      <c r="K66" s="3">
         <v>29875300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27200900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2464,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2494,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2526,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2558,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2590,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46327300</v>
+        <v>49855900</v>
       </c>
       <c r="E72" s="3">
-        <v>44169100</v>
+        <v>45888200</v>
       </c>
       <c r="F72" s="3">
-        <v>4315100</v>
+        <v>43750500</v>
       </c>
       <c r="G72" s="3">
-        <v>4930100</v>
+        <v>4274200</v>
       </c>
       <c r="H72" s="3">
-        <v>2204300</v>
+        <v>4883300</v>
       </c>
       <c r="I72" s="3">
-        <v>605700</v>
+        <v>2183400</v>
       </c>
       <c r="J72" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2046300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1422100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2654,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2686,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2718,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82169000</v>
+        <v>85359300</v>
       </c>
       <c r="E76" s="3">
-        <v>80006800</v>
+        <v>81390200</v>
       </c>
       <c r="F76" s="3">
-        <v>10161700</v>
+        <v>79248600</v>
       </c>
       <c r="G76" s="3">
-        <v>10774000</v>
+        <v>10065400</v>
       </c>
       <c r="H76" s="3">
-        <v>8045600</v>
+        <v>10671900</v>
       </c>
       <c r="I76" s="3">
-        <v>6444400</v>
+        <v>7969300</v>
       </c>
       <c r="J76" s="3">
+        <v>6383300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7883600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7255500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2782,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3542200</v>
+        <v>4359000</v>
       </c>
       <c r="E81" s="3">
-        <v>46382600</v>
+        <v>3508600</v>
       </c>
       <c r="F81" s="3">
-        <v>2977300</v>
+        <v>45943000</v>
       </c>
       <c r="G81" s="3">
-        <v>2603300</v>
+        <v>2949000</v>
       </c>
       <c r="H81" s="3">
-        <v>3517100</v>
+        <v>2578600</v>
       </c>
       <c r="I81" s="3">
-        <v>2166100</v>
+        <v>3483800</v>
       </c>
       <c r="J81" s="3">
+        <v>2145600</v>
+      </c>
+      <c r="K81" s="3">
         <v>3482900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2867,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>539900</v>
+        <v>756500</v>
       </c>
       <c r="E83" s="3">
-        <v>628100</v>
+        <v>534800</v>
       </c>
       <c r="F83" s="3">
-        <v>447700</v>
+        <v>622200</v>
       </c>
       <c r="G83" s="3">
-        <v>466100</v>
+        <v>443500</v>
       </c>
       <c r="H83" s="3">
-        <v>333100</v>
+        <v>461700</v>
       </c>
       <c r="I83" s="3">
-        <v>304200</v>
+        <v>330000</v>
       </c>
       <c r="J83" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K83" s="3">
         <v>259400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>339700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2929,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2961,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2993,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3025,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3057,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5080200</v>
+        <v>8395800</v>
       </c>
       <c r="E89" s="3">
-        <v>4794400</v>
+        <v>5032000</v>
       </c>
       <c r="F89" s="3">
-        <v>2246400</v>
+        <v>4749000</v>
       </c>
       <c r="G89" s="3">
-        <v>4682500</v>
+        <v>2225200</v>
       </c>
       <c r="H89" s="3">
-        <v>1387900</v>
+        <v>4638100</v>
       </c>
       <c r="I89" s="3">
-        <v>4431000</v>
+        <v>1374700</v>
       </c>
       <c r="J89" s="3">
+        <v>4389000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1784300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3352500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3105,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-316000</v>
+        <v>-721300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2184600</v>
+        <v>-267400</v>
       </c>
       <c r="F91" s="3">
-        <v>-391100</v>
+        <v>-773500</v>
       </c>
       <c r="G91" s="3">
-        <v>-691300</v>
+        <v>-258300</v>
       </c>
       <c r="H91" s="3">
-        <v>-196200</v>
+        <v>-607800</v>
       </c>
       <c r="I91" s="3">
-        <v>-520100</v>
+        <v>-156500</v>
       </c>
       <c r="J91" s="3">
+        <v>-429100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-271300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-546500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3167,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3199,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-375300</v>
+        <v>-960000</v>
       </c>
       <c r="E94" s="3">
-        <v>-24027500</v>
+        <v>-371700</v>
       </c>
       <c r="F94" s="3">
-        <v>-391100</v>
+        <v>-23799700</v>
       </c>
       <c r="G94" s="3">
-        <v>-553100</v>
+        <v>-387400</v>
       </c>
       <c r="H94" s="3">
-        <v>-289700</v>
+        <v>-547800</v>
       </c>
       <c r="I94" s="3">
-        <v>-994200</v>
+        <v>-286900</v>
       </c>
       <c r="J94" s="3">
+        <v>-984800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4261100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-446400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3247,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2783700</v>
+        <v>-2912500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1693400</v>
+        <v>-2757300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2869300</v>
+        <v>-1677300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1264100</v>
+        <v>-2842100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2567700</v>
+        <v>-1252100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1195600</v>
+        <v>-2543400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1184300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2451900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1160100</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3309,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3341,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3373,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5916300</v>
+        <v>-6700200</v>
       </c>
       <c r="E100" s="3">
-        <v>21424200</v>
+        <v>-5860300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1989700</v>
+        <v>21221100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4184800</v>
+        <v>-1970800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1383900</v>
+        <v>-4145100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2453200</v>
+        <v>-1370800</v>
       </c>
       <c r="J100" s="3">
+        <v>-2429900</v>
+      </c>
+      <c r="K100" s="3">
         <v>2164800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2575600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-194900</v>
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>-331800</v>
+        <v>-193000</v>
       </c>
       <c r="F101" s="3">
-        <v>-183000</v>
+        <v>-328700</v>
       </c>
       <c r="G101" s="3">
-        <v>306800</v>
+        <v>-181300</v>
       </c>
       <c r="H101" s="3">
-        <v>-69800</v>
+        <v>303900</v>
       </c>
       <c r="I101" s="3">
-        <v>-226500</v>
+        <v>-69100</v>
       </c>
       <c r="J101" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-131700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-88200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1406300</v>
+        <v>748700</v>
       </c>
       <c r="E102" s="3">
-        <v>1859300</v>
+        <v>-1393000</v>
       </c>
       <c r="F102" s="3">
-        <v>-317300</v>
+        <v>1841700</v>
       </c>
       <c r="G102" s="3">
-        <v>251500</v>
+        <v>-314300</v>
       </c>
       <c r="H102" s="3">
-        <v>-355500</v>
+        <v>249100</v>
       </c>
       <c r="I102" s="3">
-        <v>757200</v>
+        <v>-352200</v>
       </c>
       <c r="J102" s="3">
+        <v>750000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-443800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>242300</v>
       </c>
     </row>

--- a/Financials/Quarterly/BTI_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BTI_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03BF1E-981E-408D-B6E2-D0660FB1F178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BTI" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>BTI</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,166 +654,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16768200</v>
+        <v>15733500</v>
       </c>
       <c r="E8" s="3">
-        <v>15177000</v>
+        <v>16620400</v>
       </c>
       <c r="F8" s="3">
-        <v>15842100</v>
+        <v>15043100</v>
       </c>
       <c r="G8" s="3">
-        <v>9675400</v>
+        <v>15702500</v>
       </c>
       <c r="H8" s="3">
-        <v>9731500</v>
+        <v>9590100</v>
       </c>
       <c r="I8" s="3">
-        <v>8698400</v>
+        <v>9645700</v>
       </c>
       <c r="J8" s="3">
+        <v>8621700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8746700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8424800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9445300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2962100</v>
+        <v>2667100</v>
       </c>
       <c r="E9" s="3">
-        <v>2972500</v>
+        <v>2936000</v>
       </c>
       <c r="F9" s="3">
-        <v>4034200</v>
+        <v>2946300</v>
       </c>
       <c r="G9" s="3">
-        <v>2530400</v>
+        <v>3998700</v>
       </c>
       <c r="H9" s="3">
-        <v>2753400</v>
+        <v>2508100</v>
       </c>
       <c r="I9" s="3">
-        <v>2115600</v>
+        <v>2729100</v>
       </c>
       <c r="J9" s="3">
+        <v>2096900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2054300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1919900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2063400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13806100</v>
+        <v>13066400</v>
       </c>
       <c r="E10" s="3">
-        <v>12204400</v>
+        <v>13684400</v>
       </c>
       <c r="F10" s="3">
-        <v>11807900</v>
+        <v>12096800</v>
       </c>
       <c r="G10" s="3">
-        <v>7145000</v>
+        <v>11703800</v>
       </c>
       <c r="H10" s="3">
-        <v>6978100</v>
+        <v>7082000</v>
       </c>
       <c r="I10" s="3">
-        <v>6582900</v>
+        <v>6916500</v>
       </c>
       <c r="J10" s="3">
+        <v>6524800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6692400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6504900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7381900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,72 +906,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>348300</v>
+        <v>120200</v>
       </c>
       <c r="E14" s="3">
-        <v>129100</v>
+        <v>345200</v>
       </c>
       <c r="F14" s="3">
-        <v>609100</v>
+        <v>128000</v>
       </c>
       <c r="G14" s="3">
-        <v>173500</v>
+        <v>603700</v>
       </c>
       <c r="H14" s="3">
-        <v>708200</v>
+        <v>171900</v>
       </c>
       <c r="I14" s="3">
-        <v>210000</v>
+        <v>702000</v>
       </c>
       <c r="J14" s="3">
+        <v>208100</v>
+      </c>
+      <c r="K14" s="3">
         <v>405600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>175100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>431900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>756500</v>
+        <v>651600</v>
       </c>
       <c r="E15" s="3">
-        <v>534800</v>
+        <v>749800</v>
       </c>
       <c r="F15" s="3">
-        <v>622200</v>
+        <v>530100</v>
       </c>
       <c r="G15" s="3">
-        <v>443500</v>
+        <v>616700</v>
       </c>
       <c r="H15" s="3">
-        <v>499600</v>
+        <v>439600</v>
       </c>
       <c r="I15" s="3">
-        <v>306500</v>
+        <v>495100</v>
       </c>
       <c r="J15" s="3">
+        <v>303800</v>
+      </c>
+      <c r="K15" s="3">
         <v>352200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>293600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>420100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10409700</v>
+        <v>10071000</v>
       </c>
       <c r="E17" s="3">
-        <v>9388400</v>
+        <v>10317900</v>
       </c>
       <c r="F17" s="3">
-        <v>10836200</v>
+        <v>9305600</v>
       </c>
       <c r="G17" s="3">
-        <v>6318100</v>
+        <v>10740700</v>
       </c>
       <c r="H17" s="3">
-        <v>6546300</v>
+        <v>6262400</v>
       </c>
       <c r="I17" s="3">
-        <v>5812000</v>
+        <v>6488600</v>
       </c>
       <c r="J17" s="3">
+        <v>5760800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5964600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5334300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6697200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6358500</v>
+        <v>5662500</v>
       </c>
       <c r="E18" s="3">
-        <v>5788500</v>
+        <v>6302400</v>
       </c>
       <c r="F18" s="3">
-        <v>5005900</v>
+        <v>5737500</v>
       </c>
       <c r="G18" s="3">
-        <v>3357300</v>
+        <v>4961800</v>
       </c>
       <c r="H18" s="3">
-        <v>3185100</v>
+        <v>3327700</v>
       </c>
       <c r="I18" s="3">
-        <v>2886400</v>
+        <v>3157000</v>
       </c>
       <c r="J18" s="3">
+        <v>2861000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2782100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3090500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2748100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-643000</v>
+        <v>-665800</v>
       </c>
       <c r="E20" s="3">
-        <v>-611700</v>
+        <v>-637400</v>
       </c>
       <c r="F20" s="3">
-        <v>29558300</v>
+        <v>-606300</v>
       </c>
       <c r="G20" s="3">
-        <v>590900</v>
+        <v>29297700</v>
       </c>
       <c r="H20" s="3">
-        <v>491700</v>
+        <v>585600</v>
       </c>
       <c r="I20" s="3">
-        <v>1582100</v>
+        <v>487400</v>
       </c>
       <c r="J20" s="3">
+        <v>1568200</v>
+      </c>
+      <c r="K20" s="3">
         <v>675600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1893500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6472000</v>
+        <v>5648300</v>
       </c>
       <c r="E21" s="3">
-        <v>5711600</v>
+        <v>6414900</v>
       </c>
       <c r="F21" s="3">
-        <v>35186400</v>
+        <v>5661200</v>
       </c>
       <c r="G21" s="3">
-        <v>4391600</v>
+        <v>34876100</v>
       </c>
       <c r="H21" s="3">
-        <v>4138600</v>
+        <v>4352900</v>
       </c>
       <c r="I21" s="3">
-        <v>4798600</v>
+        <v>4102100</v>
       </c>
       <c r="J21" s="3">
+        <v>4756200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3759000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5243500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3708100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1165,81 +1169,90 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>382200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>379200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>385800</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5715500</v>
+        <v>4996700</v>
       </c>
       <c r="E23" s="3">
-        <v>5176800</v>
+        <v>5665100</v>
       </c>
       <c r="F23" s="3">
-        <v>34564200</v>
+        <v>5131200</v>
       </c>
       <c r="G23" s="3">
-        <v>3948100</v>
+        <v>34259500</v>
       </c>
       <c r="H23" s="3">
-        <v>3676800</v>
+        <v>3913300</v>
       </c>
       <c r="I23" s="3">
-        <v>4468600</v>
+        <v>3644400</v>
       </c>
       <c r="J23" s="3">
+        <v>4429200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3075600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4604800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2941700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1417800</v>
+        <v>1264400</v>
       </c>
       <c r="E24" s="3">
-        <v>1466000</v>
+        <v>1405300</v>
       </c>
       <c r="F24" s="3">
-        <v>1013400</v>
+        <v>1453100</v>
       </c>
       <c r="G24" s="3">
-        <v>886900</v>
+        <v>1004500</v>
       </c>
       <c r="H24" s="3">
-        <v>940400</v>
+        <v>879100</v>
       </c>
       <c r="I24" s="3">
-        <v>893500</v>
+        <v>932100</v>
       </c>
       <c r="J24" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K24" s="3">
         <v>808700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>938900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>957300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4297700</v>
+        <v>3732300</v>
       </c>
       <c r="E26" s="3">
-        <v>3710800</v>
+        <v>4259800</v>
       </c>
       <c r="F26" s="3">
-        <v>33550800</v>
+        <v>3678000</v>
       </c>
       <c r="G26" s="3">
-        <v>3061200</v>
+        <v>33255000</v>
       </c>
       <c r="H26" s="3">
-        <v>2736400</v>
+        <v>3034200</v>
       </c>
       <c r="I26" s="3">
-        <v>3575100</v>
+        <v>2712300</v>
       </c>
       <c r="J26" s="3">
+        <v>3543600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2266900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3665900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1984400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4177700</v>
+        <v>3628900</v>
       </c>
       <c r="E27" s="3">
-        <v>3598600</v>
+        <v>4140900</v>
       </c>
       <c r="F27" s="3">
-        <v>33439900</v>
+        <v>3566900</v>
       </c>
       <c r="G27" s="3">
-        <v>2949000</v>
+        <v>33145100</v>
       </c>
       <c r="H27" s="3">
-        <v>2578600</v>
+        <v>2923000</v>
       </c>
       <c r="I27" s="3">
-        <v>3483800</v>
+        <v>2555900</v>
       </c>
       <c r="J27" s="3">
+        <v>3453100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2145600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3482900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,22 +1388,25 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>181300</v>
+        <v>9000</v>
       </c>
       <c r="E29" s="3">
-        <v>-90000</v>
+        <v>179700</v>
       </c>
       <c r="F29" s="3">
-        <v>12503100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>-89200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>12392900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1398,8 +1423,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>643000</v>
+        <v>665800</v>
       </c>
       <c r="E32" s="3">
-        <v>611700</v>
+        <v>637400</v>
       </c>
       <c r="F32" s="3">
-        <v>-29558300</v>
+        <v>606300</v>
       </c>
       <c r="G32" s="3">
-        <v>-590900</v>
+        <v>-29297700</v>
       </c>
       <c r="H32" s="3">
-        <v>-491700</v>
+        <v>-585600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1582100</v>
+        <v>-487400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1568200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-675600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1893500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-579400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4359000</v>
+        <v>3638000</v>
       </c>
       <c r="E33" s="3">
-        <v>3508600</v>
+        <v>4320600</v>
       </c>
       <c r="F33" s="3">
-        <v>45943000</v>
+        <v>3477700</v>
       </c>
       <c r="G33" s="3">
-        <v>2949000</v>
+        <v>45537900</v>
       </c>
       <c r="H33" s="3">
-        <v>2578600</v>
+        <v>2923000</v>
       </c>
       <c r="I33" s="3">
-        <v>3483800</v>
+        <v>2555900</v>
       </c>
       <c r="J33" s="3">
+        <v>3453100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2145600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3482900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4359000</v>
+        <v>3638000</v>
       </c>
       <c r="E35" s="3">
-        <v>3508600</v>
+        <v>4320600</v>
       </c>
       <c r="F35" s="3">
-        <v>45943000</v>
+        <v>3477700</v>
       </c>
       <c r="G35" s="3">
-        <v>2949000</v>
+        <v>45537900</v>
       </c>
       <c r="H35" s="3">
-        <v>2578600</v>
+        <v>2923000</v>
       </c>
       <c r="I35" s="3">
-        <v>3483800</v>
+        <v>2555900</v>
       </c>
       <c r="J35" s="3">
+        <v>3453100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2145600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3482900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,296 +1705,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3393800</v>
+        <v>4276600</v>
       </c>
       <c r="E41" s="3">
-        <v>2771700</v>
+        <v>3363900</v>
       </c>
       <c r="F41" s="3">
-        <v>4292500</v>
+        <v>2747200</v>
       </c>
       <c r="G41" s="3">
-        <v>2633400</v>
+        <v>4254600</v>
       </c>
       <c r="H41" s="3">
-        <v>2874700</v>
+        <v>2610200</v>
       </c>
       <c r="I41" s="3">
-        <v>2454700</v>
+        <v>2849400</v>
       </c>
       <c r="J41" s="3">
+        <v>2433100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2560400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1865900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2393900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>232200</v>
+        <v>215900</v>
       </c>
       <c r="E42" s="3">
-        <v>245200</v>
+        <v>230100</v>
       </c>
       <c r="F42" s="3">
-        <v>84800</v>
+        <v>243000</v>
       </c>
       <c r="G42" s="3">
-        <v>33900</v>
+        <v>84000</v>
       </c>
       <c r="H42" s="3">
-        <v>19600</v>
+        <v>33600</v>
       </c>
       <c r="I42" s="3">
-        <v>79600</v>
+        <v>19400</v>
       </c>
       <c r="J42" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K42" s="3">
         <v>45700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>65800</v>
       </c>
       <c r="L42" s="3">
         <v>65800</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4776400</v>
+        <v>5230700</v>
       </c>
       <c r="E43" s="3">
-        <v>5332000</v>
+        <v>4734300</v>
       </c>
       <c r="F43" s="3">
-        <v>5886400</v>
+        <v>5285000</v>
       </c>
       <c r="G43" s="3">
-        <v>5092000</v>
+        <v>5834500</v>
       </c>
       <c r="H43" s="3">
-        <v>5155900</v>
+        <v>5047100</v>
       </c>
       <c r="I43" s="3">
-        <v>4527300</v>
+        <v>5110500</v>
       </c>
       <c r="J43" s="3">
+        <v>4487300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4356400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3414400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3719900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7863700</v>
+        <v>8673500</v>
       </c>
       <c r="E44" s="3">
-        <v>8268000</v>
+        <v>7794400</v>
       </c>
       <c r="F44" s="3">
-        <v>7648500</v>
+        <v>8195100</v>
       </c>
       <c r="G44" s="3">
-        <v>6752400</v>
+        <v>7581000</v>
       </c>
       <c r="H44" s="3">
-        <v>7555900</v>
+        <v>6692900</v>
       </c>
       <c r="I44" s="3">
-        <v>6162900</v>
+        <v>7489200</v>
       </c>
       <c r="J44" s="3">
+        <v>6108500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5539400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4959000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5442300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>240000</v>
+        <v>240500</v>
       </c>
       <c r="E45" s="3">
-        <v>256900</v>
+        <v>237900</v>
       </c>
       <c r="F45" s="3">
-        <v>303900</v>
+        <v>254700</v>
       </c>
       <c r="G45" s="3">
-        <v>453900</v>
+        <v>301200</v>
       </c>
       <c r="H45" s="3">
-        <v>513900</v>
+        <v>449900</v>
       </c>
       <c r="I45" s="3">
-        <v>717400</v>
+        <v>509400</v>
       </c>
       <c r="J45" s="3">
+        <v>711000</v>
+      </c>
+      <c r="K45" s="3">
         <v>298700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>454300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>402900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16506000</v>
+        <v>18637100</v>
       </c>
       <c r="E46" s="3">
-        <v>16873900</v>
+        <v>16360500</v>
       </c>
       <c r="F46" s="3">
-        <v>18216000</v>
+        <v>16725100</v>
       </c>
       <c r="G46" s="3">
-        <v>14965700</v>
+        <v>18055400</v>
       </c>
       <c r="H46" s="3">
-        <v>16120000</v>
+        <v>14833700</v>
       </c>
       <c r="I46" s="3">
-        <v>13941800</v>
+        <v>15977800</v>
       </c>
       <c r="J46" s="3">
+        <v>13818800</v>
+      </c>
+      <c r="K46" s="3">
         <v>12800500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10759500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12024900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3209900</v>
+        <v>3051000</v>
       </c>
       <c r="E47" s="3">
-        <v>3322100</v>
+        <v>3181600</v>
       </c>
       <c r="F47" s="3">
-        <v>3097700</v>
+        <v>3292800</v>
       </c>
       <c r="G47" s="3">
-        <v>13356100</v>
+        <v>3070400</v>
       </c>
       <c r="H47" s="3">
-        <v>13237400</v>
+        <v>13238400</v>
       </c>
       <c r="I47" s="3">
-        <v>11969700</v>
+        <v>13120700</v>
       </c>
       <c r="J47" s="3">
+        <v>11864100</v>
+      </c>
+      <c r="K47" s="3">
         <v>9421000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8967300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3409200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6738100</v>
+        <v>7347000</v>
       </c>
       <c r="E48" s="3">
-        <v>6324600</v>
+        <v>6678700</v>
       </c>
       <c r="F48" s="3">
-        <v>6367600</v>
+        <v>6268800</v>
       </c>
       <c r="G48" s="3">
-        <v>4742500</v>
+        <v>6311500</v>
       </c>
       <c r="H48" s="3">
-        <v>4775100</v>
+        <v>4700700</v>
       </c>
       <c r="I48" s="3">
-        <v>4270300</v>
+        <v>4733000</v>
       </c>
       <c r="J48" s="3">
+        <v>4232700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3940300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3727800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3955600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161751400</v>
+        <v>160420900</v>
       </c>
       <c r="E49" s="3">
-        <v>156525000</v>
+        <v>160325200</v>
       </c>
       <c r="F49" s="3">
-        <v>153628200</v>
+        <v>155145000</v>
       </c>
       <c r="G49" s="3">
-        <v>15882600</v>
+        <v>152273600</v>
       </c>
       <c r="H49" s="3">
-        <v>15804300</v>
+        <v>15742500</v>
       </c>
       <c r="I49" s="3">
-        <v>15364800</v>
+        <v>15665000</v>
       </c>
       <c r="J49" s="3">
+        <v>15229300</v>
+      </c>
+      <c r="K49" s="3">
         <v>13611800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13336400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14226600</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2669900</v>
+        <v>2024500</v>
       </c>
       <c r="E52" s="3">
-        <v>2819900</v>
+        <v>2646400</v>
       </c>
       <c r="F52" s="3">
-        <v>2668600</v>
+        <v>2795100</v>
       </c>
       <c r="G52" s="3">
-        <v>2163900</v>
+        <v>2645100</v>
       </c>
       <c r="H52" s="3">
-        <v>1939500</v>
+        <v>2144800</v>
       </c>
       <c r="I52" s="3">
-        <v>1720400</v>
+        <v>1922400</v>
       </c>
       <c r="J52" s="3">
+        <v>1705200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1331700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>967800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>190875300</v>
+        <v>191480700</v>
       </c>
       <c r="E54" s="3">
-        <v>185865500</v>
+        <v>189192400</v>
       </c>
       <c r="F54" s="3">
-        <v>183978100</v>
+        <v>184226700</v>
       </c>
       <c r="G54" s="3">
-        <v>51110700</v>
+        <v>182356000</v>
       </c>
       <c r="H54" s="3">
-        <v>51876300</v>
+        <v>50660100</v>
       </c>
       <c r="I54" s="3">
-        <v>47266900</v>
+        <v>51418900</v>
       </c>
       <c r="J54" s="3">
+        <v>46850100</v>
+      </c>
+      <c r="K54" s="3">
         <v>41105300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37759000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34456400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13866100</v>
+        <v>12620400</v>
       </c>
       <c r="E57" s="3">
-        <v>12388300</v>
+        <v>13743900</v>
       </c>
       <c r="F57" s="3">
-        <v>11618800</v>
+        <v>12279100</v>
       </c>
       <c r="G57" s="3">
-        <v>7758000</v>
+        <v>11516400</v>
       </c>
       <c r="H57" s="3">
-        <v>9567100</v>
+        <v>7689600</v>
       </c>
       <c r="I57" s="3">
-        <v>6625900</v>
+        <v>9482800</v>
       </c>
       <c r="J57" s="3">
+        <v>6567500</v>
+      </c>
+      <c r="K57" s="3">
         <v>7743700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5837300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7273900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5510700</v>
+        <v>11261700</v>
       </c>
       <c r="E58" s="3">
-        <v>6895900</v>
+        <v>5462100</v>
       </c>
       <c r="F58" s="3">
-        <v>7073300</v>
+        <v>6835100</v>
       </c>
       <c r="G58" s="3">
-        <v>7593700</v>
+        <v>7010900</v>
       </c>
       <c r="H58" s="3">
-        <v>3922100</v>
+        <v>7526700</v>
       </c>
       <c r="I58" s="3">
-        <v>6968900</v>
+        <v>3887500</v>
       </c>
       <c r="J58" s="3">
+        <v>6907500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2863000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1765800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3264300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1921200</v>
+        <v>1706500</v>
       </c>
       <c r="E59" s="3">
-        <v>1650000</v>
+        <v>1904300</v>
       </c>
       <c r="F59" s="3">
-        <v>1661700</v>
+        <v>1635400</v>
       </c>
       <c r="G59" s="3">
-        <v>1859900</v>
+        <v>1647000</v>
       </c>
       <c r="H59" s="3">
-        <v>1974700</v>
+        <v>1843500</v>
       </c>
       <c r="I59" s="3">
-        <v>1779100</v>
+        <v>1957300</v>
       </c>
       <c r="J59" s="3">
+        <v>1763400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1140000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1067900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1008700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21298100</v>
+        <v>25588600</v>
       </c>
       <c r="E60" s="3">
-        <v>20934200</v>
+        <v>21110300</v>
       </c>
       <c r="F60" s="3">
-        <v>20353800</v>
+        <v>20749600</v>
       </c>
       <c r="G60" s="3">
-        <v>17211700</v>
+        <v>20174300</v>
       </c>
       <c r="H60" s="3">
-        <v>15463900</v>
+        <v>17059900</v>
       </c>
       <c r="I60" s="3">
-        <v>15373900</v>
+        <v>15327600</v>
       </c>
       <c r="J60" s="3">
+        <v>15238400</v>
+      </c>
+      <c r="K60" s="3">
         <v>11746600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8671100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11546900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56455800</v>
+        <v>53756300</v>
       </c>
       <c r="E61" s="3">
-        <v>56378800</v>
+        <v>55958000</v>
       </c>
       <c r="F61" s="3">
-        <v>57424900</v>
+        <v>55881700</v>
       </c>
       <c r="G61" s="3">
-        <v>19675500</v>
+        <v>56918500</v>
       </c>
       <c r="H61" s="3">
-        <v>21505500</v>
+        <v>19502000</v>
       </c>
       <c r="I61" s="3">
-        <v>19418600</v>
+        <v>21315900</v>
       </c>
       <c r="J61" s="3">
+        <v>19247400</v>
+      </c>
+      <c r="K61" s="3">
         <v>19311600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18607600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12876900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27444000</v>
+        <v>27410200</v>
       </c>
       <c r="E62" s="3">
-        <v>26877900</v>
+        <v>27202000</v>
       </c>
       <c r="F62" s="3">
-        <v>26661400</v>
+        <v>26640900</v>
       </c>
       <c r="G62" s="3">
-        <v>3907700</v>
+        <v>26426300</v>
       </c>
       <c r="H62" s="3">
-        <v>3942900</v>
+        <v>3873300</v>
       </c>
       <c r="I62" s="3">
-        <v>4319900</v>
+        <v>3908200</v>
       </c>
       <c r="J62" s="3">
+        <v>4281800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3483800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2253000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2376800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105516100</v>
+        <v>107083500</v>
       </c>
       <c r="E66" s="3">
-        <v>104475200</v>
+        <v>104585700</v>
       </c>
       <c r="F66" s="3">
-        <v>104729600</v>
+        <v>103554100</v>
       </c>
       <c r="G66" s="3">
-        <v>41045300</v>
+        <v>103806200</v>
       </c>
       <c r="H66" s="3">
-        <v>41204500</v>
+        <v>40683400</v>
       </c>
       <c r="I66" s="3">
-        <v>39297600</v>
+        <v>40841200</v>
       </c>
       <c r="J66" s="3">
+        <v>38951100</v>
+      </c>
+      <c r="K66" s="3">
         <v>34722000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29875300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27200900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49855900</v>
+        <v>49205600</v>
       </c>
       <c r="E72" s="3">
-        <v>45888200</v>
+        <v>49416400</v>
       </c>
       <c r="F72" s="3">
-        <v>43750500</v>
+        <v>45483600</v>
       </c>
       <c r="G72" s="3">
-        <v>4274200</v>
+        <v>43364700</v>
       </c>
       <c r="H72" s="3">
-        <v>4883300</v>
+        <v>4236500</v>
       </c>
       <c r="I72" s="3">
-        <v>2183400</v>
+        <v>4840300</v>
       </c>
       <c r="J72" s="3">
+        <v>2164200</v>
+      </c>
+      <c r="K72" s="3">
         <v>600000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2046300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1422100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85359300</v>
+        <v>84397200</v>
       </c>
       <c r="E76" s="3">
-        <v>81390200</v>
+        <v>84606700</v>
       </c>
       <c r="F76" s="3">
-        <v>79248600</v>
+        <v>80672600</v>
       </c>
       <c r="G76" s="3">
-        <v>10065400</v>
+        <v>78549800</v>
       </c>
       <c r="H76" s="3">
-        <v>10671900</v>
+        <v>9976600</v>
       </c>
       <c r="I76" s="3">
-        <v>7969300</v>
+        <v>10577800</v>
       </c>
       <c r="J76" s="3">
+        <v>7899100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6383300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7883600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7255500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4359000</v>
+        <v>3638000</v>
       </c>
       <c r="E81" s="3">
-        <v>3508600</v>
+        <v>4320600</v>
       </c>
       <c r="F81" s="3">
-        <v>45943000</v>
+        <v>3477700</v>
       </c>
       <c r="G81" s="3">
-        <v>2949000</v>
+        <v>45537900</v>
       </c>
       <c r="H81" s="3">
-        <v>2578600</v>
+        <v>2923000</v>
       </c>
       <c r="I81" s="3">
-        <v>3483800</v>
+        <v>2555900</v>
       </c>
       <c r="J81" s="3">
+        <v>3453100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2145600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3482900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1801400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>756500</v>
+        <v>651600</v>
       </c>
       <c r="E83" s="3">
-        <v>534800</v>
+        <v>749800</v>
       </c>
       <c r="F83" s="3">
-        <v>622200</v>
+        <v>530100</v>
       </c>
       <c r="G83" s="3">
-        <v>443500</v>
+        <v>616700</v>
       </c>
       <c r="H83" s="3">
-        <v>461700</v>
+        <v>439600</v>
       </c>
       <c r="I83" s="3">
-        <v>330000</v>
+        <v>457700</v>
       </c>
       <c r="J83" s="3">
+        <v>327100</v>
+      </c>
+      <c r="K83" s="3">
         <v>301300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>259400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>339700</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8395800</v>
+        <v>2957900</v>
       </c>
       <c r="E89" s="3">
-        <v>5032000</v>
+        <v>8321800</v>
       </c>
       <c r="F89" s="3">
-        <v>4749000</v>
+        <v>4987700</v>
       </c>
       <c r="G89" s="3">
-        <v>2225200</v>
+        <v>4707100</v>
       </c>
       <c r="H89" s="3">
-        <v>4638100</v>
+        <v>2205500</v>
       </c>
       <c r="I89" s="3">
-        <v>1374700</v>
+        <v>4597200</v>
       </c>
       <c r="J89" s="3">
+        <v>1362600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4389000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1784300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3352500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-721300</v>
+        <v>-230100</v>
       </c>
       <c r="E91" s="3">
-        <v>-267400</v>
+        <v>-714900</v>
       </c>
       <c r="F91" s="3">
-        <v>-773500</v>
+        <v>-265000</v>
       </c>
       <c r="G91" s="3">
-        <v>-258300</v>
+        <v>-766600</v>
       </c>
       <c r="H91" s="3">
-        <v>-607800</v>
+        <v>-256000</v>
       </c>
       <c r="I91" s="3">
-        <v>-156500</v>
+        <v>-602400</v>
       </c>
       <c r="J91" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-429100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-271300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-546500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-960000</v>
+        <v>-268900</v>
       </c>
       <c r="E94" s="3">
-        <v>-371700</v>
+        <v>-951500</v>
       </c>
       <c r="F94" s="3">
-        <v>-23799700</v>
+        <v>-368500</v>
       </c>
       <c r="G94" s="3">
-        <v>-387400</v>
+        <v>-23589900</v>
       </c>
       <c r="H94" s="3">
-        <v>-547800</v>
+        <v>-384000</v>
       </c>
       <c r="I94" s="3">
-        <v>-286900</v>
+        <v>-543000</v>
       </c>
       <c r="J94" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-984800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4261100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-446400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2912500</v>
+        <v>-2943700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2757300</v>
+        <v>-2886800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1677300</v>
+        <v>-2733000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2842100</v>
+        <v>-1662600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1252100</v>
+        <v>-2817000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2543400</v>
+        <v>-1241100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2521000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1184300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2451900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1160100</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6700200</v>
+        <v>-2544300</v>
       </c>
       <c r="E100" s="3">
-        <v>-5860300</v>
+        <v>-6641200</v>
       </c>
       <c r="F100" s="3">
-        <v>21221100</v>
+        <v>-5808600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1970800</v>
+        <v>21034000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4145100</v>
+        <v>-1953400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1370800</v>
+        <v>-4108600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1358700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2429900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2164800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2575600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13000</v>
+        <v>-69800</v>
       </c>
       <c r="E101" s="3">
-        <v>-193000</v>
+        <v>12900</v>
       </c>
       <c r="F101" s="3">
-        <v>-328700</v>
+        <v>-191300</v>
       </c>
       <c r="G101" s="3">
-        <v>-181300</v>
+        <v>-325800</v>
       </c>
       <c r="H101" s="3">
-        <v>303900</v>
+        <v>-179700</v>
       </c>
       <c r="I101" s="3">
-        <v>-69100</v>
+        <v>301200</v>
       </c>
       <c r="J101" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-224300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-131700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-88200</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>748700</v>
+        <v>75000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1393000</v>
+        <v>742100</v>
       </c>
       <c r="F102" s="3">
-        <v>1841700</v>
+        <v>-1380700</v>
       </c>
       <c r="G102" s="3">
-        <v>-314300</v>
+        <v>1825400</v>
       </c>
       <c r="H102" s="3">
-        <v>249100</v>
+        <v>-311600</v>
       </c>
       <c r="I102" s="3">
-        <v>-352200</v>
+        <v>246900</v>
       </c>
       <c r="J102" s="3">
+        <v>-349100</v>
+      </c>
+      <c r="K102" s="3">
         <v>750000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-443800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>242300</v>
       </c>
     </row>
